--- a/BeerList.xlsx
+++ b/BeerList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cd55ea4161e305f/Documents/Portfolio Projects/Brewing Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="277" documentId="11_F25DC773A252ABDACC104884699867FA5ADE58E6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E4B7C507-086E-42FC-B741-F371E5F6FB18}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="11_F25DC773A252ABDACC104884699867FA5ADE58E6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{21F379CB-6B2C-4167-BEC7-DCC97CD7606D}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,20 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="124">
   <si>
     <t>Beer Name</t>
   </si>
   <si>
-    <t>BLACK-OUT STOUT</t>
-  </si>
-  <si>
     <t>I.P.YAY</t>
   </si>
   <si>
-    <t>SWHEAT-ASS BEER</t>
-  </si>
-  <si>
     <t>THE AAALE</t>
   </si>
   <si>
@@ -48,27 +42,12 @@
     <t>RAGNAR RED (A VIKING BREW)</t>
   </si>
   <si>
-    <t>JINGLE BALLS</t>
-  </si>
-  <si>
     <t>RAPE N' PILLAGE (A VIKING BREW)</t>
   </si>
   <si>
-    <t>BALLIN-CHAIN</t>
-  </si>
-  <si>
     <t>???</t>
   </si>
   <si>
-    <t>BARRIES BOOT JUICE (BEACHIN STOUT)</t>
-  </si>
-  <si>
-    <t>NEW ENGLAND IPA</t>
-  </si>
-  <si>
-    <t>FALL OF 14'</t>
-  </si>
-  <si>
     <t>BLIND PIG IPA CLONE</t>
   </si>
   <si>
@@ -99,15 +78,9 @@
     <t>Red IPA</t>
   </si>
   <si>
-    <t>Stout</t>
-  </si>
-  <si>
     <t>Wheat Beer</t>
   </si>
   <si>
-    <t>Triple Belgium</t>
-  </si>
-  <si>
     <t>IPA</t>
   </si>
   <si>
@@ -129,9 +102,6 @@
     <t>New England IPA</t>
   </si>
   <si>
-    <t>West Coast IPA</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -222,9 +192,6 @@
     <t>(some paleolitic licks)</t>
   </si>
   <si>
-    <t>Blonde Stout</t>
-  </si>
-  <si>
     <t>Febrary, 2019?</t>
   </si>
   <si>
@@ -237,12 +204,6 @@
     <t>January, 2020</t>
   </si>
   <si>
-    <t>January, 2021</t>
-  </si>
-  <si>
-    <t>January, 2022</t>
-  </si>
-  <si>
     <t>Characteristics</t>
   </si>
   <si>
@@ -291,9 +252,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Hayden burns Alex; Hayden burns me</t>
-  </si>
-  <si>
     <t>Amarillo, Citra, Mosaic</t>
   </si>
   <si>
@@ -316,13 +274,157 @@
   </si>
   <si>
     <t>Golden LME, Maris Otter, Caramel 122</t>
+  </si>
+  <si>
+    <t>Nix</t>
+  </si>
+  <si>
+    <t>BLACKOUT STOUT</t>
+  </si>
+  <si>
+    <t>SHWEET (or Suh-Wheat) A** BEER</t>
+  </si>
+  <si>
+    <t>Triple Belgium Ale</t>
+  </si>
+  <si>
+    <t>BALLIN' CHAIN</t>
+  </si>
+  <si>
+    <t>JINGLE BERRIES</t>
+  </si>
+  <si>
+    <t>BARRY'S BOOT JUICE</t>
+  </si>
+  <si>
+    <r>
+      <t>BLITZ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Felix Titling"/>
+        <family val="5"/>
+      </rPr>
+      <t>KRUNK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BOP</t>
+    </r>
+  </si>
+  <si>
+    <t>WICKED-PISSA (TOM BRADY KISSES HIS SON ON THE LIPS [LIKE A FAGGOT]) IPA</t>
+  </si>
+  <si>
+    <t>Coffee Stout</t>
+  </si>
+  <si>
+    <t>Summer Stout</t>
+  </si>
+  <si>
+    <t>Tundra IPA</t>
+  </si>
+  <si>
+    <t>Pale LME, Smoked Beachwood Malt, Bairds Malt, Maris Ottter Pale Ale, Flaked Oats</t>
+  </si>
+  <si>
+    <t>September, 2020</t>
+  </si>
+  <si>
+    <t>Briess Pilson Light LME, Briess Munich LME, Gold Pils Vienne Grain, Muntons Munich Malt, Caramel 10L(deep fried)</t>
+  </si>
+  <si>
+    <t>Briess Pilson Light LME, Briess Munich LME, Gold Pils Vienne Grain, Muntons Munich Malt, Caramel 10L(honey glazed)</t>
+  </si>
+  <si>
+    <t>Columbus/Tomohawk/Zeus, Kent Goldings</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Safale US-05</t>
+  </si>
+  <si>
+    <t>Wyeast 1010</t>
+  </si>
+  <si>
+    <t>Arabica Coffee Beans</t>
+  </si>
+  <si>
+    <t>Beets</t>
+  </si>
+  <si>
+    <t>Cranberries, Clove</t>
+  </si>
+  <si>
+    <t>Cocoa Nibs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first of many. A mess of a beer. The only thing darker than this beer was the memory of that day. With what started as a standard stout ended up being a more mysterious experience. Coffee grounds? Why not us. </t>
+  </si>
+  <si>
+    <t>An "up-beet' beer. Some would say we …. "turnip" for this beer. A beer even the local cashiers can get behind. We did coke during it, okay!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We attempted to care about something for once in our lives. To make a beer we were proud of. We will never make that mistake again. Follow your hearts kids. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">With what we thought was a botched beer, with no life for days, became the most powerful beer we could imagine. Protective eye-wear necessary upon opening beer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you ever had fermented love? Didn’t think so. </t>
+  </si>
+  <si>
+    <t>We don’t discuss this time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King of kings. Symbolic of his bloody reign. Farmer of Kattegat turned King of the North. </t>
+  </si>
+  <si>
+    <t>THE BLOODSHED! WHY IS THIS HAPPENING TO US! GOD IS PUNISHING US FOR OUR SINFUL DEEDS! GREAT ODINS RAVEN!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohhh, fuck this guy. No one wanted him, yet he's always around. Some say Loki, others say Fringe guy. All that matters is he sucks. Actually a good beer though. </t>
+  </si>
+  <si>
+    <t>Some floating white balls. What better way to celebrate the holidays. A frutiy, spiced beer to enhance your holidays!</t>
+  </si>
+  <si>
+    <t>After a hard summer workout, nothing cools my hot shweaty body up more than a Barry's Boot Juice. Mmmm</t>
+  </si>
+  <si>
+    <t>Fuck you Germany. You think your hot shit in the beer world? Fuck you, America is taking over, and we are starting by deep-frying our grains and bastardizing your beloved culture. Bitch.</t>
+  </si>
+  <si>
+    <t>Dear Germany, we love and appreciate your beer. Don’t every stop being you. Love, America</t>
+  </si>
+  <si>
+    <t>"Hayden burns Alex; Hayden burns me"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going back to our roots. Time to stop pretending. Less hops in this variate. </t>
+  </si>
+  <si>
+    <t>Going back to our roots. Time to stop pretending. Less malt in this variate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going back to our roots. Time to stop pretending. Evenly balanced red IPA variate. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +463,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Felix Titling"/>
+      <family val="5"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -382,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -390,6 +498,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,16 +787,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:T29"/>
+  <dimension ref="A4:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="33.9296875" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" customWidth="1"/>
     <col min="4" max="4" width="19.46484375" customWidth="1"/>
     <col min="5" max="5" width="18.59765625" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
@@ -687,496 +804,597 @@
     <col min="8" max="8" width="32.86328125" customWidth="1"/>
     <col min="9" max="9" width="19.265625" customWidth="1"/>
     <col min="10" max="10" width="19.3984375" customWidth="1"/>
+    <col min="11" max="11" width="19.46484375" customWidth="1"/>
+    <col min="12" max="12" width="10.19921875" customWidth="1"/>
+    <col min="13" max="14" width="9.06640625" customWidth="1"/>
     <col min="15" max="15" width="9.19921875" customWidth="1"/>
     <col min="16" max="16" width="11.3984375" customWidth="1"/>
+    <col min="17" max="19" width="9.06640625" customWidth="1"/>
+    <col min="20" max="20" width="40.86328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T5" s="6"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="57" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="T12" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="57" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G13" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="T13" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G14" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="T14" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="57" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="T18" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="T19" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="42.75" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="T20" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="42.75" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G21" s="2">
         <v>2</v>
       </c>
+      <c r="K21" t="s">
+        <v>105</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
         <v>31</v>
       </c>
-      <c r="E22" t="s">
-        <v>41</v>
-      </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:20" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G24" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="H24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" t="s">
+        <v>106</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" ht="57" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
         <v>32</v>
       </c>
-      <c r="E25" t="s">
-        <v>42</v>
-      </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G25" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" t="s">
+        <v>102</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="G26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I26" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="J26" t="s">
-        <v>94</v>
-      </c>
-      <c r="K26" t="s">
-        <v>44</v>
-      </c>
-      <c r="T26" t="s">
-        <v>88</v>
+        <v>102</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s">
-        <v>93</v>
-      </c>
-      <c r="K27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s">
-        <v>93</v>
-      </c>
-      <c r="K28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s">
-        <v>93</v>
-      </c>
-      <c r="K29" t="s">
-        <v>44</v>
+        <v>79</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" t="s">
+        <v>79</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
